--- a/assembler/StackDemo.xlsx
+++ b/assembler/StackDemo.xlsx
@@ -14,18 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="99">
   <si>
     <t>4010F3(返回地址)</t>
   </si>
   <si>
-    <t>ESP 18FEF8</t>
-  </si>
-  <si>
-    <t>ESP 0018FEFC</t>
-  </si>
-  <si>
-    <t>EBP 0018FF48</t>
+    <t>ESP 19FEE4</t>
+  </si>
+  <si>
+    <t>ESP 19FEE8</t>
+  </si>
+  <si>
+    <t>ESP 0019FEF4</t>
+  </si>
+  <si>
+    <t>EBP 0019FF40</t>
   </si>
   <si>
     <t>push 0x3</t>
@@ -49,13 +52,13 @@
     <t>EBP</t>
   </si>
   <si>
-    <t>ESP 18FEF4</t>
+    <t>ESP 19FEE0</t>
   </si>
   <si>
     <t>ebp</t>
   </si>
   <si>
-    <t>EBP = ESP 18FEF4</t>
+    <t>EBP = ESP 19FEE0</t>
   </si>
   <si>
     <t>push ebp</t>
@@ -67,7 +70,7 @@
     <t>edi</t>
   </si>
   <si>
-    <t>ESP 18FEA8</t>
+    <t>ESP 19FE8C</t>
   </si>
   <si>
     <t>esi</t>
@@ -76,16 +79,13 @@
     <t>ebx</t>
   </si>
   <si>
-    <t>ESP 18FEB4</t>
+    <t>ESP 19FE98</t>
   </si>
   <si>
     <t>把这个内存编号给edi</t>
   </si>
   <si>
-    <t>EBP 18FEF4</t>
-  </si>
-  <si>
-    <t>EBP 18FEE2</t>
+    <t>EBP 19FEE0</t>
   </si>
   <si>
     <t>sub esp,0x48</t>
@@ -100,7 +100,7 @@
     <t>push esi</t>
   </si>
   <si>
-    <t>edi= 18FEB4</t>
+    <t>edi= 19FE98</t>
   </si>
   <si>
     <t>push edi</t>
@@ -112,6 +112,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>19FEDC</t>
+  </si>
+  <si>
     <t>mov ecx,0x12</t>
   </si>
   <si>
@@ -142,13 +145,13 @@
     <t>ecx(1)</t>
   </si>
   <si>
-    <t>ESP 18FEA0</t>
+    <t>ESP 19FE84</t>
   </si>
   <si>
     <t>eax(2)</t>
   </si>
   <si>
-    <t>ESP 18FEA4</t>
+    <t>ESP 19FE88</t>
   </si>
   <si>
     <t>push eax</t>
@@ -163,13 +166,151 @@
     <t>ecx = 1</t>
   </si>
   <si>
+    <t>EBP(新)</t>
+  </si>
+  <si>
+    <t>ESP 19FE7C</t>
+  </si>
+  <si>
     <t>0040109C(返回地址2)</t>
   </si>
   <si>
-    <t>ESP 18FE9C</t>
+    <t>ESP 19FE80</t>
+  </si>
+  <si>
+    <t>原EBP(19FEE0)</t>
   </si>
   <si>
     <t>call 0040100A</t>
+  </si>
+  <si>
+    <t>ESP 19FE2C</t>
+  </si>
+  <si>
+    <t>ESP 19FE38</t>
+  </si>
+  <si>
+    <t>sub esp,0x44</t>
+  </si>
+  <si>
+    <t>lea edi,dword ptr ss:[ebp-0x44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">push esi    </t>
+  </si>
+  <si>
+    <t>mov ecx,0x11</t>
+  </si>
+  <si>
+    <t>A(10进制 等于10 )</t>
+  </si>
+  <si>
+    <t>ESP = EBP</t>
+  </si>
+  <si>
+    <t>pop edi</t>
+  </si>
+  <si>
+    <t>mov esp,ebp</t>
+  </si>
+  <si>
+    <t>mov dword ptr ss:[ebp-0x4],0xA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop esi </t>
+  </si>
+  <si>
+    <t>mov eax,dword ptr ss:[ebp+0x8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop ebx  </t>
+  </si>
+  <si>
+    <t>eax = 1</t>
+  </si>
+  <si>
+    <t>add eax,dword ptr ss:[ebp+0xC]</t>
+  </si>
+  <si>
+    <t>eax = 1 + 2 = 3</t>
+  </si>
+  <si>
+    <t>add eax,dword ptr ss:[ebp-0x4]</t>
+  </si>
+  <si>
+    <t>eax = 3 +A = D</t>
+  </si>
+  <si>
+    <t>EBP(新)  19FE7C</t>
+  </si>
+  <si>
+    <t>EBP 弹出</t>
+  </si>
+  <si>
+    <t>EBP 弹出(步骤1)</t>
+  </si>
+  <si>
+    <t>ESP = 0019FE80</t>
+  </si>
+  <si>
+    <t>ESP = 0019FE84</t>
+  </si>
+  <si>
+    <t>ESP  19FE8C</t>
+  </si>
+  <si>
+    <t>0019FEE0</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>EBP 弹出(步骤2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBP </t>
+  </si>
+  <si>
+    <t>pop ebp</t>
+  </si>
+  <si>
+    <t>retn</t>
+  </si>
+  <si>
+    <t>add esp,0x8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop eip </t>
+  </si>
+  <si>
+    <t>mov dword ptr ss:[ebp-0x8],eax</t>
+  </si>
+  <si>
+    <t>ebp 对应的内存地址是 0019FEE0</t>
+  </si>
+  <si>
+    <t>esp+4</t>
+  </si>
+  <si>
+    <t>当retn指令执行时是将esp指向地址得值弹出到EIP指令指针寄存器</t>
+  </si>
+  <si>
+    <t>esp 指向的地址是 0040109C</t>
+  </si>
+  <si>
+    <t>mov eax,dword ptr ss:[ebp-0x4]</t>
+  </si>
+  <si>
+    <t>add eax,dword ptr ss:[ebp-0x8]</t>
+  </si>
+  <si>
+    <t>eax = eax+D  =2 + D = F</t>
+  </si>
+  <si>
+    <t>add eax,dword ptr ss:[ebp+0x10]</t>
+  </si>
+  <si>
+    <t>不懂.ebp+10</t>
   </si>
 </sst>
 </file>
@@ -177,12 +318,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +346,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFF00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +367,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,16 +405,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,9 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +468,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,21 +483,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,7 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +547,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,13 +577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +607,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,7 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,31 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,19 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +788,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -694,17 +853,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -713,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,137 +873,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +1060,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -987,7 +1150,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1237,10 +1400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C10:L256"/>
+  <dimension ref="C10:M474"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="K476" sqref="K476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1249,7 +1412,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="3:11">
@@ -1320,7 +1483,7 @@
     <row r="19" spans="3:11">
       <c r="C19" s="4"/>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
       <c r="K19" s="4"/>
@@ -1338,41 +1501,41 @@
     <row r="22" spans="3:12">
       <c r="C22" s="4"/>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="3:7">
@@ -1393,16 +1556,16 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="3:7">
@@ -1452,56 +1615,56 @@
     <row r="46" spans="3:7">
       <c r="C46" s="4"/>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="4"/>
     </row>
     <row r="48" spans="3:7">
       <c r="C48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="7:12">
       <c r="G64" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="7:11">
       <c r="G65" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="7:11">
       <c r="G66" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="3:11">
       <c r="C67" s="10"/>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" s="10"/>
       <c r="K67" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="3:11">
@@ -1592,11 +1755,11 @@
     <row r="85" spans="3:12">
       <c r="C85" s="6"/>
       <c r="D85" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="11" t="s">
@@ -1693,32 +1856,32 @@
     </row>
     <row r="105" spans="3:12">
       <c r="C105" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K105" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="L105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="3:11">
       <c r="C106" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="3:11">
       <c r="C107" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="3:11">
@@ -1857,12 +2020,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="3:11">
+    <row r="125" spans="3:12">
       <c r="C125" s="12" t="s">
         <v>30</v>
       </c>
       <c r="K125" s="12" t="s">
         <v>31</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="3:12">
@@ -1925,101 +2091,101 @@
     </row>
     <row r="136" spans="3:11">
       <c r="C136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="3:11">
       <c r="C140" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="11:12">
       <c r="K147" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="3:11">
       <c r="C148" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D148" t="s">
+        <v>45</v>
+      </c>
+      <c r="G148" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G148" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="H148" t="s">
+        <v>45</v>
+      </c>
+      <c r="K148" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="K148" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="149" spans="3:11">
       <c r="C149" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="3:11">
       <c r="C150" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="3:11">
       <c r="C151" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="3:11">
@@ -2300,188 +2466,2104 @@
     </row>
     <row r="180" spans="3:11">
       <c r="C180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="7:11">
       <c r="G181" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181" s="3"/>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" s="3"/>
     </row>
-    <row r="221" spans="3:4">
+    <row r="220" spans="7:8">
+      <c r="G220" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H220" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7">
       <c r="C221" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D221" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="222" spans="3:3">
+        <v>53</v>
+      </c>
+      <c r="G221" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7">
       <c r="C222" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="223" spans="3:3">
+        <v>42</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7">
       <c r="C223" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="224" spans="3:3">
+        <v>44</v>
+      </c>
+      <c r="G223" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7">
       <c r="C224" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="3:3">
+        <v>17</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7">
       <c r="C225" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="3:3">
+        <v>19</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7">
       <c r="C226" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3">
+        <v>20</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7">
       <c r="C227" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="228" spans="3:3">
+      <c r="G227" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7">
       <c r="C228" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="229" spans="3:3">
+      <c r="G228" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7">
       <c r="C229" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="230" spans="3:3">
+      <c r="G229" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7">
       <c r="C230" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="231" spans="3:3">
+      <c r="G230" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7">
       <c r="C231" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="232" spans="3:3">
+      <c r="G231" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7">
       <c r="C232" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="233" spans="3:3">
+      <c r="G232" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7">
       <c r="C233" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="234" spans="3:3">
+      <c r="G233" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7">
       <c r="C234" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="235" spans="3:3">
+      <c r="G234" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7">
       <c r="C235" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="236" spans="3:3">
+      <c r="G235" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7">
       <c r="C236" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="237" spans="3:3">
+      <c r="G236" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="3:7">
       <c r="C237" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="238" spans="3:3">
+      <c r="G237" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="3:7">
       <c r="C238" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="239" spans="3:3">
+      <c r="G238" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="3:7">
       <c r="C239" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="240" spans="3:3">
+      <c r="G239" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7">
       <c r="C240" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="241" spans="3:3">
+      <c r="G240" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="3:7">
       <c r="C241" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="242" spans="3:3">
+      <c r="G241" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="3:7">
       <c r="C242" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="243" spans="3:3">
+      <c r="G242" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="3:7">
       <c r="C243" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="244" spans="3:3">
+      <c r="G243" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="3:7">
       <c r="C244" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="245" spans="3:4">
+      <c r="G244" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8">
       <c r="C245" s="6"/>
       <c r="D245" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="246" spans="3:3">
+      <c r="G245" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H245" s="11"/>
+    </row>
+    <row r="246" spans="3:7">
       <c r="C246" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="3:3">
+      <c r="G246" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="3:7">
       <c r="C247" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="3:3">
+      <c r="G247" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="3:7">
       <c r="C248" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="3:3">
+      <c r="G248" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="3:7">
       <c r="C249" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="3:3">
+      <c r="G249" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="3:7">
       <c r="C250" s="4"/>
-    </row>
-    <row r="251" spans="3:3">
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" spans="3:7">
       <c r="C251" s="4"/>
-    </row>
-    <row r="252" spans="3:3">
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252" spans="3:7">
       <c r="C252" s="4"/>
-    </row>
-    <row r="253" spans="3:3">
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253" spans="3:7">
       <c r="C253" s="4"/>
-    </row>
-    <row r="256" spans="3:3">
+      <c r="G253" s="4"/>
+    </row>
+    <row r="256" spans="3:7">
       <c r="C256" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="7:7">
+      <c r="G257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="7:7">
+      <c r="G267" s="21"/>
+    </row>
+    <row r="268" spans="7:12">
+      <c r="G268" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" t="s">
+        <v>56</v>
+      </c>
+      <c r="K268" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L268" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" spans="7:11">
+      <c r="G269" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K269" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="7:11">
+      <c r="G270" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K270" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="3:11">
+      <c r="C271" s="22"/>
+      <c r="D271" t="s">
+        <v>57</v>
+      </c>
+      <c r="G271" s="22"/>
+      <c r="K271" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="3:11">
+      <c r="C272" s="22"/>
+      <c r="G272" s="22"/>
+      <c r="K272" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="3:11">
+      <c r="C273" s="22"/>
+      <c r="G273" s="22"/>
+      <c r="K273" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="3:11">
+      <c r="C274" s="22"/>
+      <c r="G274" s="22"/>
+      <c r="K274" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="3:11">
+      <c r="C275" s="22"/>
+      <c r="G275" s="22"/>
+      <c r="K275" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="3:11">
+      <c r="C276" s="22"/>
+      <c r="G276" s="22"/>
+      <c r="K276" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="3:11">
+      <c r="C277" s="22"/>
+      <c r="G277" s="22"/>
+      <c r="K277" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="3:11">
+      <c r="C278" s="22"/>
+      <c r="G278" s="22"/>
+      <c r="K278" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="3:11">
+      <c r="C279" s="22"/>
+      <c r="G279" s="22"/>
+      <c r="K279" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="3:11">
+      <c r="C280" s="22"/>
+      <c r="G280" s="22"/>
+      <c r="K280" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="3:11">
+      <c r="C281" s="22"/>
+      <c r="G281" s="22"/>
+      <c r="K281" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="3:11">
+      <c r="C282" s="22"/>
+      <c r="G282" s="22"/>
+      <c r="K282" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="3:11">
+      <c r="C283" s="22"/>
+      <c r="G283" s="22"/>
+      <c r="K283" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="3:11">
+      <c r="C284" s="22"/>
+      <c r="G284" s="22"/>
+      <c r="K284" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="3:11">
+      <c r="C285" s="22"/>
+      <c r="G285" s="22"/>
+      <c r="K285" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="3:11">
+      <c r="C286" s="22"/>
+      <c r="G286" s="22"/>
+      <c r="K286" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="3:11">
+      <c r="C287" s="22"/>
+      <c r="G287" s="22"/>
+      <c r="K287" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="3:11">
+      <c r="C288" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D288"/>
+      <c r="G288" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K288" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="3:11">
+      <c r="C289" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G289" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K289" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="3:11">
+      <c r="C290" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G290" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K290" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="291" spans="3:11">
+      <c r="C291" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G291" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K291" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="3:11">
+      <c r="C292" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K292" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="3:11">
+      <c r="C293" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="3:11">
+      <c r="C294" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G294" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K294" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="3:11">
+      <c r="C295" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G295" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K295" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="3:11">
+      <c r="C296" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G296" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K296" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="3:11">
+      <c r="C297" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G297" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K297" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="3:11">
+      <c r="C298" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G298" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K298" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="3:11">
+      <c r="C299" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G299" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K299" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="3:11">
+      <c r="C300" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G300" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K300" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="3:11">
+      <c r="C301" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G301" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K301" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="3:11">
+      <c r="C302" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G302" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K302" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="3:11">
+      <c r="C303" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G303" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K303" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="3:11">
+      <c r="C304" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G304" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K304" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="3:11">
+      <c r="C305" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G305" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K305" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="3:11">
+      <c r="C306" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G306" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K306" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="3:11">
+      <c r="C307" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G307" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K307" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="3:11">
+      <c r="C308" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G308" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K308" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="3:11">
+      <c r="C309" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G309" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K309" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="3:11">
+      <c r="C310" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G310" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K310" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="3:11">
+      <c r="C311" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G311" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K311" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="3:11">
+      <c r="C312" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G312" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K312" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="313" spans="3:12">
+      <c r="C313" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D313" s="11"/>
+      <c r="G313" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H313" s="11"/>
+      <c r="K313" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L313" s="11"/>
+    </row>
+    <row r="314" spans="3:11">
+      <c r="C314" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G314" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K314" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="3:11">
+      <c r="C315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="K315" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="3:11">
+      <c r="C316" s="18">
+        <v>2</v>
+      </c>
+      <c r="G316" s="18">
+        <v>2</v>
+      </c>
+      <c r="K316" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="3:11">
+      <c r="C317" s="2">
+        <v>3</v>
+      </c>
+      <c r="G317" s="2">
+        <v>3</v>
+      </c>
+      <c r="K317" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="3:11">
+      <c r="C318" s="4"/>
+      <c r="G318" s="4"/>
+      <c r="K318" s="4"/>
+    </row>
+    <row r="319" spans="3:11">
+      <c r="C319" s="4"/>
+      <c r="G319" s="4"/>
+      <c r="K319" s="4"/>
+    </row>
+    <row r="320" spans="3:11">
+      <c r="C320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="K320" s="4"/>
+    </row>
+    <row r="321" spans="3:11">
+      <c r="C321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="K321" s="4"/>
+    </row>
+    <row r="324" spans="3:11">
+      <c r="C324" t="s">
+        <v>58</v>
+      </c>
+      <c r="G324" t="s">
+        <v>25</v>
+      </c>
+      <c r="K324" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="325" spans="7:11">
+      <c r="G325" t="s">
+        <v>60</v>
+      </c>
+      <c r="K325" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="326" spans="7:11">
+      <c r="G326" t="s">
+        <v>29</v>
+      </c>
+      <c r="K326" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="327" spans="11:11">
+      <c r="K327" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="336" spans="3:11">
+      <c r="C336" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" t="s">
+        <v>56</v>
+      </c>
+      <c r="G336" s="20"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="3:11">
+      <c r="C337" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G337" s="20"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="3:11">
+      <c r="C338" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G338" s="20"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="3:11">
+      <c r="C339" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G339" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H339" t="s">
+        <v>57</v>
+      </c>
+      <c r="K339" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="3:11">
+      <c r="C340" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G340" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K340" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="3:11">
+      <c r="C341" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G341" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K341" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="3:11">
+      <c r="C342" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G342" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K342" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="3:11">
+      <c r="C343" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G343" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K343" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="3:11">
+      <c r="C344" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G344" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K344" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="345" spans="3:11">
+      <c r="C345" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G345" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K345" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346" spans="3:11">
+      <c r="C346" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G346" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K346" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347" spans="3:11">
+      <c r="C347" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G347" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K347" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="3:11">
+      <c r="C348" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G348" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K348" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="3:11">
+      <c r="C349" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G349" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K349" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350" spans="3:11">
+      <c r="C350" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G350" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K350" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="351" spans="3:11">
+      <c r="C351" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G351" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K351" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352" spans="3:11">
+      <c r="C352" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G352" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K352" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="353" spans="3:11">
+      <c r="C353" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G353" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K353" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="354" spans="3:11">
+      <c r="C354" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G354" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K354" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="355" spans="3:11">
+      <c r="C355" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G355" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K355" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" spans="3:12">
+      <c r="C356" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G356" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K356" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L356" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="357" spans="3:11">
+      <c r="C357" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G357" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K357" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="358" spans="3:11">
+      <c r="C358" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G358" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K358" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="359" spans="3:11">
+      <c r="C359" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G359" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K359" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="360" spans="3:11">
+      <c r="C360" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G360" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K360" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="3:11">
+      <c r="C361" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G361" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K361" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="3:11">
+      <c r="C362" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G362" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K362" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="3:11">
+      <c r="C363" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G363" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K363" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="364" spans="3:11">
+      <c r="C364" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G364" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K364" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="365" spans="3:11">
+      <c r="C365" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G365" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K365" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="3:11">
+      <c r="C366" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G366" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K366" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367" spans="3:11">
+      <c r="C367" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G367" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K367" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="368" spans="3:11">
+      <c r="C368" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G368" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K368" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="369" spans="3:11">
+      <c r="C369" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G369" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K369" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="370" spans="3:11">
+      <c r="C370" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G370" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K370" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="371" spans="3:11">
+      <c r="C371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K371" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372" spans="3:11">
+      <c r="C372" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G372" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K372" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="373" spans="3:11">
+      <c r="C373" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G373" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K373" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="374" spans="3:11">
+      <c r="C374" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G374" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K374" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="375" spans="3:11">
+      <c r="C375" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G375" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K375" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="376" spans="3:11">
+      <c r="C376" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G376" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K376" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="377" spans="3:11">
+      <c r="C377" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G377" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K377" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="378" spans="3:11">
+      <c r="C378" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G378" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K378" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="379" spans="3:11">
+      <c r="C379" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G379" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K379" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="380" spans="3:11">
+      <c r="C380" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G380" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K380" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="381" spans="3:12">
+      <c r="C381" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D381" s="11"/>
+      <c r="G381" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H381" s="11"/>
+      <c r="K381" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L381" s="11"/>
+    </row>
+    <row r="382" spans="3:11">
+      <c r="C382" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G382" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K382" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="3:11">
+      <c r="C383" s="17">
+        <v>1</v>
+      </c>
+      <c r="G383" s="17">
+        <v>1</v>
+      </c>
+      <c r="K383" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="3:11">
+      <c r="C384" s="18">
+        <v>2</v>
+      </c>
+      <c r="G384" s="18">
+        <v>2</v>
+      </c>
+      <c r="K384" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="3:11">
+      <c r="C385" s="2">
+        <v>3</v>
+      </c>
+      <c r="G385" s="2">
+        <v>3</v>
+      </c>
+      <c r="K385" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="3:11">
+      <c r="C386" s="4"/>
+      <c r="G386" s="4"/>
+      <c r="K386" s="4"/>
+    </row>
+    <row r="387" spans="3:11">
+      <c r="C387" s="4"/>
+      <c r="G387" s="4"/>
+      <c r="K387" s="4"/>
+    </row>
+    <row r="388" spans="3:11">
+      <c r="C388" s="4"/>
+      <c r="G388" s="4"/>
+      <c r="K388" s="4"/>
+    </row>
+    <row r="389" spans="3:11">
+      <c r="C389" s="4"/>
+      <c r="G389" s="4"/>
+      <c r="K389" s="4"/>
+    </row>
+    <row r="391" spans="7:11">
+      <c r="G391" t="s">
+        <v>64</v>
+      </c>
+      <c r="K391" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="392" spans="3:7">
+      <c r="C392" t="s">
+        <v>66</v>
+      </c>
+      <c r="G392" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="393" spans="3:7">
+      <c r="C393" t="s">
+        <v>68</v>
+      </c>
+      <c r="G393" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="407" spans="3:11">
+      <c r="C407" s="20"/>
+      <c r="G407" s="20"/>
+      <c r="K407" s="20"/>
+    </row>
+    <row r="408" spans="3:11">
+      <c r="C408" s="20"/>
+      <c r="G408" s="20"/>
+      <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="3:11">
+      <c r="C409" s="20"/>
+      <c r="G409" s="20"/>
+      <c r="K409" s="20"/>
+    </row>
+    <row r="410" spans="3:11">
+      <c r="C410" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D410"/>
+      <c r="G410" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K410" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411" spans="3:11">
+      <c r="C411" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G411" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K411" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="412" spans="3:11">
+      <c r="C412" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G412" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K412" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="413" spans="3:11">
+      <c r="C413" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G413" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K413" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="414" spans="3:11">
+      <c r="C414" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G414" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K414" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="415" spans="3:11">
+      <c r="C415" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G415" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K415" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="416" spans="3:11">
+      <c r="C416" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G416" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K416" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="417" spans="3:11">
+      <c r="C417" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G417" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K417" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="418" spans="3:11">
+      <c r="C418" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G418" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K418" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="419" spans="3:11">
+      <c r="C419" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G419" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K419" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="420" spans="3:11">
+      <c r="C420" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G420" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K420" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="421" spans="3:11">
+      <c r="C421" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G421" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K421" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="422" spans="3:11">
+      <c r="C422" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G422" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K422" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="423" spans="3:11">
+      <c r="C423" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G423" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K423" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="424" spans="3:11">
+      <c r="C424" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G424" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K424" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" spans="3:11">
+      <c r="C425" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G425" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K425" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" spans="3:11">
+      <c r="C426" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G426" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K426" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="427" spans="3:11">
+      <c r="C427" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D427" t="s">
+        <v>76</v>
+      </c>
+      <c r="G427" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H427" t="s">
+        <v>77</v>
+      </c>
+      <c r="K427" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="428" spans="3:11">
+      <c r="C428" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D428" t="s">
+        <v>78</v>
+      </c>
+      <c r="G428" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K428" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="429" spans="3:11">
+      <c r="C429" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G429" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H429" t="s">
+        <v>79</v>
+      </c>
+      <c r="K429" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="430" spans="3:11">
+      <c r="C430" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G430" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K430" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="431" spans="3:12">
+      <c r="C431" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G431" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K431" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="432" spans="3:11">
+      <c r="C432" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G432" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K432" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="433" spans="3:11">
+      <c r="C433" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G433" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K433" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434" spans="3:11">
+      <c r="C434" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G434" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K434" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="435" spans="3:11">
+      <c r="C435" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G435" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K435" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="436" spans="3:11">
+      <c r="C436" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G436" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K436" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="437" spans="3:11">
+      <c r="C437" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G437" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K437" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="438" spans="3:11">
+      <c r="C438" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G438" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K438" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="439" spans="3:11">
+      <c r="C439" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G439" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K439" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440" spans="3:11">
+      <c r="C440" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G440" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K440" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="441" spans="3:11">
+      <c r="C441" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G441" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K441" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="442" spans="3:11">
+      <c r="C442" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G442" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K442" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="3:11">
+      <c r="C443" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G443" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K443" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="444" spans="3:11">
+      <c r="C444" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G444" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K444" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="445" spans="3:11">
+      <c r="C445" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G445" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K445" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="446" spans="3:11">
+      <c r="C446" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G446" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K446" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="447" spans="3:11">
+      <c r="C447" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G447" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K447" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="3:11">
+      <c r="C448" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G448" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K448" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449" spans="3:11">
+      <c r="C449" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G449" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K449" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="3:13">
+      <c r="C450" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G450" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K450" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L450" t="s">
+        <v>81</v>
+      </c>
+      <c r="M450" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="451" spans="3:11">
+      <c r="C451" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G451" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K451" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="452" spans="3:12">
+      <c r="C452" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D452" s="11"/>
+      <c r="G452" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K452" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L452" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="453" spans="3:11">
+      <c r="C453" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G453" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K453" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="3:11">
+      <c r="C454" s="17">
+        <v>1</v>
+      </c>
+      <c r="G454" s="17">
+        <v>1</v>
+      </c>
+      <c r="K454" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="3:11">
+      <c r="C455" s="18">
+        <v>2</v>
+      </c>
+      <c r="G455" s="18">
+        <v>2</v>
+      </c>
+      <c r="K455" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="3:11">
+      <c r="C456" s="2">
+        <v>3</v>
+      </c>
+      <c r="G456" s="2">
+        <v>3</v>
+      </c>
+      <c r="K456" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="3:11">
+      <c r="C457" s="4"/>
+      <c r="G457" s="4"/>
+      <c r="K457" s="4"/>
+    </row>
+    <row r="458" spans="3:11">
+      <c r="C458" s="4"/>
+      <c r="G458" s="4"/>
+      <c r="K458" s="4"/>
+    </row>
+    <row r="459" spans="3:11">
+      <c r="C459" s="4"/>
+      <c r="G459" s="4"/>
+      <c r="K459" s="4"/>
+    </row>
+    <row r="460" spans="3:11">
+      <c r="C460" s="4"/>
+      <c r="G460" s="4"/>
+      <c r="K460" s="4"/>
+    </row>
+    <row r="462" spans="3:11">
+      <c r="C462" t="s">
+        <v>85</v>
+      </c>
+      <c r="G462" t="s">
+        <v>86</v>
+      </c>
+      <c r="K462" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="463" spans="7:11">
+      <c r="G463" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K463" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="464" spans="3:7">
+      <c r="C464" t="s">
+        <v>90</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="465" spans="7:7">
+      <c r="G465" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="466" spans="7:7">
+      <c r="G466" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="467" spans="11:11">
+      <c r="K467" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="468" spans="11:11">
+      <c r="K468" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="470" spans="11:11">
+      <c r="K470" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="471" spans="11:11">
+      <c r="K471" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="473" spans="11:11">
+      <c r="K473" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="474" spans="11:11">
+      <c r="K474" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
